--- a/scripts/datageneration/data/Primary_Keys_filtered7.xlsx
+++ b/scripts/datageneration/data/Primary_Keys_filtered7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deutschewelle.sharepoint.com/teams/GR-GR-ReCo-KID2/Freigegebene Dokumente/General/03_Ongoing Work/03C_MS_Spot - ongoing/03Cc_Development/Key-Value Pairs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3E9D086-9E30-4FBF-BE7A-E9E981EB31A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{909E672E-DD3D-45DE-8689-51524D518C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36640" yWindow="-3940" windowWidth="36260" windowHeight="21100" xr2:uid="{0ED01DE8-A235-1045-8C96-52557544134F}"/>
   </bookViews>
@@ -270,7 +270,7 @@
     <t>parking spaces|parking spots|parking|parking area|Parking lots|parking zone|parking aisle|street side parking| parking space| parking spot| parking slot| parking place| parking stall|accessible parking space</t>
   </si>
   <si>
-    <t>amenity=parking, amenity=parking, amenity=motorcycle_parking, amenity=parking_space, highway=service AND service=parking_aisle, parking=***ANY***, amenity=parking_space AND parking_space=disabled</t>
+    <t>amenity=parking, amenity=parking, amenity=motorcycle_parking, amenity=parking_space, highway=service AND service=parking_aisle, parking=***any***, amenity=parking_space AND parking_space=disabled</t>
   </si>
   <si>
     <t>parking complex|multi-story parking facility|parking entrance|parking garage|car park|Multi-storey car park|underground parking garage</t>
@@ -549,7 +549,7 @@
     <t>cemetery|burial ground| catacomb| memorial park| tomb|grave yard|mausoleum</t>
   </si>
   <si>
-    <t>amenity=grave_yard, amenity=crematorium, amenity=funeral_hall, amenity=place_of_mourning, landuse=cemetery, historic=tomb, cemetery=***ANY***</t>
+    <t>amenity=grave_yard, amenity=crematorium, amenity=funeral_hall, amenity=place_of_mourning, landuse=cemetery, historic=tomb, cemetery=***any***</t>
   </si>
   <si>
     <t>hunting stand| shooting house</t>
@@ -1185,7 +1185,7 @@
     <t>Moving walkway|moving sidewalk</t>
   </si>
   <si>
-    <t>highway=footway AND conveying=***ANY***</t>
+    <t>highway=footway AND conveying=***any***</t>
   </si>
   <si>
     <t>staircase|steps|stairway|Stairs</t>
@@ -1320,7 +1320,7 @@
     <t>highway=traffic_mirror</t>
   </si>
   <si>
-    <t>traffic signals|traffic control</t>
+    <t xml:space="preserve">traffic signals|traffic control|traffic light|traffic lights|traffic lamps|signal lights|stop lights </t>
   </si>
   <si>
     <t>highway=traffic_signals</t>
@@ -1401,7 +1401,7 @@
     <t>industrial|Industrial area|factory district|manufacturing zone|industrial park|industrial building</t>
   </si>
   <si>
-    <t>landuse=industrial, industrial=*, man_made=works, building=industrial</t>
+    <t>landuse=industrial, industrial=***any***, man_made=works, building=industrial</t>
   </si>
   <si>
     <t>urban area|town|township|settlement|village|community|suburb|hamlet|megalopolis|residential area|dwelling|city|metropolis|municipality</t>
@@ -1479,7 +1479,7 @@
     <t>army base|military installation|Military base, naval base|marine base|navy base</t>
   </si>
   <si>
-    <t>landuse=military, military=base, military_service=***ANY***</t>
+    <t>landuse=military, military=base, military_service=***any***</t>
   </si>
   <si>
     <t>Military Trench|war trench</t>
@@ -1593,7 +1593,7 @@
     <t>playground|play area|play park|kids playground</t>
   </si>
   <si>
-    <t>leisure=playground, playground=***ANY***</t>
+    <t>leisure=playground, playground=***any***</t>
   </si>
   <si>
     <t>sports centre|sport pitch|sport field</t>
@@ -2163,7 +2163,7 @@
     <t>railway bridge|railroad viaduct|train bridge|railroad bridge|trestle bridge</t>
   </si>
   <si>
-    <t>railway=* AND bridge=yes</t>
+    <t>railway=***any*** AND bridge=yes</t>
   </si>
   <si>
     <t>railway cutting|submerged railway|sunken railway|under-level railway</t>
@@ -2175,7 +2175,7 @@
     <t>railway tunnel|train tunnel|metro tunnel|railway underpass|subway tunnel|railroad tunnel</t>
   </si>
   <si>
-    <t>railway=* AND tunnel=yes</t>
+    <t>railway=***any*** AND tunnel=yes</t>
   </si>
   <si>
     <t>railway crossing|level crossing|grade crossing|pedestrian railway crossing</t>
@@ -2439,7 +2439,7 @@
     <t>golf facility|golf course</t>
   </si>
   <si>
-    <t>sport=golf, golf=***ANY***, leisure=golf_course</t>
+    <t>sport=golf, golf=***any***, leisure=golf_course</t>
   </si>
   <si>
     <t>mini golf|miniature golf|putt-putt|crazy golf</t>
@@ -2451,7 +2451,7 @@
     <t>disc golf|disck golf course</t>
   </si>
   <si>
-    <t>disc_golf=***ANY***, leisure=disc_golf_course</t>
+    <t>disc_golf=***any***, leisure=disc_golf_course</t>
   </si>
   <si>
     <t>Bowling Alley|bowling center</t>
@@ -2664,13 +2664,13 @@
     <t>street name</t>
   </si>
   <si>
-    <t>addr:street=***any***</t>
+    <t>addr:street~***any***</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>name=***any***</t>
+    <t>name~***any***</t>
   </si>
   <si>
     <t>toll road</t>
@@ -2730,7 +2730,7 @@
     <t>skyscraper|condominiums|tall buildings|High-rise apartments|high-rise buildings|skyline</t>
   </si>
   <si>
-    <t>building=* AND building:levels&gt;10</t>
+    <t>building=***any*** AND building:levels&gt;10</t>
   </si>
   <si>
     <t>clear cut patch|logging|clear cut area|Logging area|deforested area|strip clearcut</t>
@@ -2844,7 +2844,7 @@
     <t>Tourism map|public map|visitor center|public guidepost|trail marker|public information terminal|information terminal|public information board</t>
   </si>
   <si>
-    <t>tourism=information AND information=***ANY***</t>
+    <t>tourism=information AND information=***any***</t>
   </si>
   <si>
     <t>art gallery</t>
@@ -2874,7 +2874,7 @@
     <t>wetland|Bog|Swamp|String Bog|Coastal Salt Marsh|Fen|reed bed|mangrove|marsh|wet meadow|tidal flat</t>
   </si>
   <si>
-    <t>natural=wetland, wetland=***ANY***</t>
+    <t>natural=wetland, wetland=***any***</t>
   </si>
   <si>
     <t>Oxbow Lake</t>
@@ -2919,7 +2919,7 @@
     <t>man_made=charge_point</t>
   </si>
   <si>
-    <t>Flagpole</t>
+    <t>Flagpole|flag</t>
   </si>
   <si>
     <t>man_made=flagpole</t>
@@ -3276,7 +3276,7 @@
     <t>traffic calming|speed bump|speed hump|speed table|traffic island|speed cushion|traffic choker|traffic rumble strip|chicane|traffic chicane</t>
   </si>
   <si>
-    <t>traffic_calming=***ANY***</t>
+    <t>traffic_calming=***any***</t>
   </si>
   <si>
     <t>smoking area|smokers' area</t>
@@ -3432,7 +3432,7 @@
     <t>manhole</t>
   </si>
   <si>
-    <t>manhole=***ANY***</t>
+    <t>manhole=***any***</t>
   </si>
   <si>
     <t>Lighting Mast|flood light|stadium lights|stadium lighting</t>
@@ -3468,7 +3468,7 @@
     <t>crane|gantry crane|portal crane|overhead crane|gantry</t>
   </si>
   <si>
-    <t>man_made=crane AND crane:type=***ANY***, man_made=gantry</t>
+    <t>man_made=crane AND crane:type=***any***, man_made=gantry</t>
   </si>
   <si>
     <t>Postal Relay Box|post relay box</t>
@@ -3627,10 +3627,10 @@
     <t>sport=horse_racing</t>
   </si>
   <si>
-    <t>Advertising Totem|Poster Box|Billboard|Notice Board|Advertising Column|advertising board|advertising column|advertising flag|advertising	screen|advertising sign|advertising tarp|wall painting</t>
-  </si>
-  <si>
-    <t>advertising=***ANY***</t>
+    <t>Advertising Totem|Poster Box|Billboard|Notice Board|Advertising Column|advertising board|advertising column|advertising screen|advertising sign|advertising tarp|wall painting</t>
+  </si>
+  <si>
+    <t>advertising=***any***</t>
   </si>
   <si>
     <t>Destination Sign</t>
@@ -4137,8 +4137,8 @@
   <dimension ref="A1:E603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A586" sqref="A586:XFD586"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -11934,7 +11934,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="588" spans="2:5" ht="68.099999999999994">
+    <row r="588" spans="2:5" ht="48.75">
       <c r="B588" s="5" t="s">
         <v>1179</v>
       </c>
@@ -12377,6 +12377,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="fef4af80-67d0-434d-aa7c-17eed15b0840">
@@ -12387,25 +12396,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BDEFB25-8BC9-4665-A2CC-36164968FF65}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2787CFFA-3460-4A04-BA0A-9FECDEAA6229}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E49D155-2C11-4885-ACD3-E6D3BF89105E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E49D155-2C11-4885-ACD3-E6D3BF89105E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2787CFFA-3460-4A04-BA0A-9FECDEAA6229}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/scripts/datageneration/data/Primary_Keys_filtered7.xlsx
+++ b/scripts/datageneration/data/Primary_Keys_filtered7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deutschewelle.sharepoint.com/teams/GR-GR-ReCo-KID2/Freigegebene Dokumente/General/03_Ongoing Work/03C_MS_Spot - ongoing/03Cc_Development/Key-Value Pairs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFF5935-2DE9-431C-B597-DEAE994598B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{022E6B9C-70FD-44A6-A7D6-703B45B4D3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36640" yWindow="-3940" windowWidth="36260" windowHeight="21100" xr2:uid="{0ED01DE8-A235-1045-8C96-52557544134F}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
     <t>bus guideway|lane|bus lane|bus street|busway|bus track</t>
   </si>
   <si>
-    <t xml:space="preserve">["busway"|"busway:right"|"busway:left"|"busway:both"|"busway:conditional"|"busway:conditional "]=["lane"|"opposite_lane"|"designated"|"yes"], ["psv:lanes:forward:conditional"|"psv:lanes:backward:conditional"|"psv:lanes:conditional:conditional"|"psv:lanes:forward"|"psv:lanes:backward"|"psv:lanes:conditional"|"psv:lanes"|"psv"|"bus:lanes:forward:conditional"|"bus:lanes:backward:conditional"|"bus:lanes:conditional:conditional"|"bus:lanes:forward"|"bus:lanes:backward"|"bus:lanes:conditional"|"bus:lanes"|"bus"]=designated, highway=busway, highway=bus_guideway ["lanes:bus:forward:conditional"|"lanes:bus:backward:conditional"|"lanes:bus:conditional:conditional"|"lanes:bus:forward"|"lanes:bus:backward"|"lanes:bus:conditional"|"lanes:bus"|"lanes:psv:forward:conditional"|"lanes:psv:backward:conditional"|"lanes:psv:conditional:conditional"|"lanes:psv:forward"|"lanes:psv:backward"|"lanes:psv:conditional"|"lanes:psv"]=***numeric***, highway=["busway"|"bus_guideway"], </t>
+    <t xml:space="preserve">["busway"|"busway:right"|"busway:left"|"busway:both"|"busway:conditional"|"busway:conditional "]=["lane"|"opposite_lane"|"designated"|"yes"], ["psv:lanes:forward:conditional"|"psv:lanes:backward:conditional"|"psv:lanes:conditional:conditional"|"psv:lanes:forward"|"psv:lanes:backward"|"psv:lanes:conditional"|"psv:lanes"|"psv"|"bus:lanes:forward:conditional"|"bus:lanes:backward:conditional"|"bus:lanes:conditional:conditional"|"bus:lanes:forward"|"bus:lanes:backward"|"bus:lanes:conditional"|"bus:lanes"|"bus"]=designated, highway=busway, highway=bus_guideway,["lanes:bus:forward:conditional"|"lanes:bus:backward:conditional"|"lanes:bus:conditional:conditional"|"lanes:bus:forward"|"lanes:bus:backward"|"lanes:bus:conditional"|"lanes:bus"|"lanes:psv:forward:conditional"|"lanes:psv:backward:conditional"|"lanes:psv:conditional:conditional"|"lanes:psv:forward"|"lanes:psv:backward"|"lanes:psv:conditional"|"lanes:psv"]&gt;0, highway=["busway"|"bus_guideway"], </t>
   </si>
   <si>
     <t>ford</t>
@@ -1266,10 +1266,10 @@
     <t>highway=milestone</t>
   </si>
   <si>
-    <t>Roundabout|traffic circle|rotary</t>
-  </si>
-  <si>
-    <t>highway=mini_roundabout, junction=circular|mini roundabout|junction=roundabout</t>
+    <t>Roundabout|mini roundabout|traffic circle|rotary</t>
+  </si>
+  <si>
+    <t>highway=mini_roundabout, junction=circular,junction=roundabout</t>
   </si>
   <si>
     <t>motorway junction</t>
@@ -2766,7 +2766,7 @@
     <t>bus stop|bus platform|Bus bay|coach stop area|trolleybus station|trolleybus terminal|trolleybus stopping location</t>
   </si>
   <si>
-    <t xml:space="preserve">highway=bus_stop, bus_bay=both, bus_bay=left, bus_bay=right, public_transport=stop_position AND bus=yes, public_transport=stop_area, public_transport=station AND trolleybus=yes, public_transport=platform, trolleybus=yespublic_transport=platform, trolleybus=yes public_transport=platform AND bus=yes, public_transport=stop_position AND trolleybus=yes, public_transport=platform AND trolleybus=yes, </t>
+    <t>highway=bus_stop, bus_bay=both, bus_bay=left, bus_bay=right, public_transport=stop_position AND bus=yes, public_transport=stop_area, public_transport=station AND trolleybus=yes, public_transport=platform AND trolleybus=yes, public_transport=platform AND trolleybus=yes, public_transport=platform AND bus=yes, public_transport=stop_position AND trolleybus=yes, public_transport=platform AND trolleybus=yes</t>
   </si>
   <si>
     <t>bus station|public bus transport station|bus transit station|bus commuter station|bus transport hub|bus interchangeterminus|coach station|</t>
@@ -3799,8 +3799,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4137,8 +4137,8 @@
   <dimension ref="A1:E603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A562" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B588" sqref="B588"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -12117,15 +12117,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="fef4af80-67d0-434d-aa7c-17eed15b0840">
@@ -12134,6 +12125,15 @@
     <TaxCatchAll xmlns="69e77a95-4add-417d-ac50-c09752e64638" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12397,11 +12397,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E49D155-2C11-4885-ACD3-E6D3BF89105E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2787CFFA-3460-4A04-BA0A-9FECDEAA6229}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2787CFFA-3460-4A04-BA0A-9FECDEAA6229}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E49D155-2C11-4885-ACD3-E6D3BF89105E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
